--- a/natmiOut/OldD4/LR-pairs_lrc2p/Mmp9-Lrp1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Mmp9-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,9 +79,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Mmp9</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.79183291923682</v>
+        <v>8.037999999999998</v>
       </c>
       <c r="H2">
-        <v>6.79183291923682</v>
+        <v>24.114</v>
       </c>
       <c r="I2">
-        <v>0.3921595902222552</v>
+        <v>0.3841084334571443</v>
       </c>
       <c r="J2">
-        <v>0.3921595902222552</v>
+        <v>0.3872543627141208</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N2">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O2">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P2">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q2">
-        <v>22.8144613011473</v>
+        <v>31.72337097066666</v>
       </c>
       <c r="R2">
-        <v>22.8144613011473</v>
+        <v>285.5103387359999</v>
       </c>
       <c r="S2">
-        <v>0.002799055548576182</v>
+        <v>0.003104474924919669</v>
       </c>
       <c r="T2">
-        <v>0.002799055548576182</v>
+        <v>0.003221059233732708</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.79183291923682</v>
+        <v>8.037999999999998</v>
       </c>
       <c r="H3">
-        <v>6.79183291923682</v>
+        <v>24.114</v>
       </c>
       <c r="I3">
-        <v>0.3921595902222552</v>
+        <v>0.3841084334571443</v>
       </c>
       <c r="J3">
-        <v>0.3921595902222552</v>
+        <v>0.3872543627141208</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N3">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P3">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q3">
-        <v>1188.786589251942</v>
+        <v>1493.482458951333</v>
       </c>
       <c r="R3">
-        <v>1188.786589251942</v>
+        <v>13441.342130562</v>
       </c>
       <c r="S3">
-        <v>0.1458495843840621</v>
+        <v>0.1461534100177736</v>
       </c>
       <c r="T3">
-        <v>0.1458495843840621</v>
+        <v>0.1516420013898014</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.79183291923682</v>
+        <v>8.037999999999998</v>
       </c>
       <c r="H4">
-        <v>6.79183291923682</v>
+        <v>24.114</v>
       </c>
       <c r="I4">
-        <v>0.3921595902222552</v>
+        <v>0.3841084334571443</v>
       </c>
       <c r="J4">
-        <v>0.3921595902222552</v>
+        <v>0.3872543627141208</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N4">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O4">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P4">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q4">
-        <v>784.9342386323468</v>
+        <v>943.1742927913332</v>
       </c>
       <c r="R4">
-        <v>784.9342386323468</v>
+        <v>8488.568635121999</v>
       </c>
       <c r="S4">
-        <v>0.09630183710718625</v>
+        <v>0.09229980459854022</v>
       </c>
       <c r="T4">
-        <v>0.09630183710718625</v>
+        <v>0.09576599749200602</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.79183291923682</v>
+        <v>8.037999999999998</v>
       </c>
       <c r="H5">
-        <v>6.79183291923682</v>
+        <v>24.114</v>
       </c>
       <c r="I5">
-        <v>0.3921595902222552</v>
+        <v>0.3841084334571443</v>
       </c>
       <c r="J5">
-        <v>0.3921595902222552</v>
+        <v>0.3872543627141208</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N5">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O5">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P5">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q5">
-        <v>921.3345799781966</v>
+        <v>1123.424256455333</v>
       </c>
       <c r="R5">
-        <v>921.3345799781966</v>
+        <v>10110.818308098</v>
       </c>
       <c r="S5">
-        <v>0.1130364918172927</v>
+        <v>0.1099392128735937</v>
       </c>
       <c r="T5">
-        <v>0.1130364918172927</v>
+        <v>0.1140678296137174</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.79183291923682</v>
+        <v>8.037999999999998</v>
       </c>
       <c r="H6">
-        <v>6.79183291923682</v>
+        <v>24.114</v>
       </c>
       <c r="I6">
-        <v>0.3921595902222552</v>
+        <v>0.3841084334571443</v>
       </c>
       <c r="J6">
-        <v>0.3921595902222552</v>
+        <v>0.3872543627141208</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N6">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O6">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P6">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q6">
-        <v>278.5332174240986</v>
+        <v>333.2440178119999</v>
       </c>
       <c r="R6">
-        <v>278.5332174240986</v>
+        <v>1999.464106872</v>
       </c>
       <c r="S6">
-        <v>0.03417262136513795</v>
+        <v>0.03261153104231711</v>
       </c>
       <c r="T6">
-        <v>0.03417262136513795</v>
+        <v>0.02255747498486333</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>10.527220569644</v>
+        <v>0.8133796666666666</v>
       </c>
       <c r="H7">
-        <v>10.527220569644</v>
+        <v>2.440139</v>
       </c>
       <c r="I7">
-        <v>0.6078404097777449</v>
+        <v>0.03886862273814725</v>
       </c>
       <c r="J7">
-        <v>0.6078404097777449</v>
+        <v>0.03918696497382732</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N7">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O7">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P7">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q7">
-        <v>35.36201039553435</v>
+        <v>3.210144924815111</v>
       </c>
       <c r="R7">
-        <v>35.36201039553435</v>
+        <v>28.891304323336</v>
       </c>
       <c r="S7">
-        <v>0.004338486458211989</v>
+        <v>0.0003141473973135339</v>
       </c>
       <c r="T7">
-        <v>0.004338486458211989</v>
+        <v>0.0003259447730588577</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>10.527220569644</v>
+        <v>0.8133796666666666</v>
       </c>
       <c r="H8">
-        <v>10.527220569644</v>
+        <v>2.440139</v>
       </c>
       <c r="I8">
-        <v>0.6078404097777449</v>
+        <v>0.03886862273814725</v>
       </c>
       <c r="J8">
-        <v>0.6078404097777449</v>
+        <v>0.03918696497382732</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N8">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P8">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q8">
-        <v>1842.598129857442</v>
+        <v>151.1281742515985</v>
       </c>
       <c r="R8">
-        <v>1842.598129857442</v>
+        <v>1360.153568264387</v>
       </c>
       <c r="S8">
-        <v>0.2260642691096198</v>
+        <v>0.01478952624066352</v>
       </c>
       <c r="T8">
-        <v>0.2260642691096198</v>
+        <v>0.0153449266662233</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>10.527220569644</v>
+        <v>0.8133796666666666</v>
       </c>
       <c r="H9">
-        <v>10.527220569644</v>
+        <v>2.440139</v>
       </c>
       <c r="I9">
-        <v>0.6078404097777449</v>
+        <v>0.03886862273814725</v>
       </c>
       <c r="J9">
-        <v>0.6078404097777449</v>
+        <v>0.03918696497382732</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N9">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O9">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P9">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q9">
-        <v>1216.634148838397</v>
+        <v>95.44150185110522</v>
       </c>
       <c r="R9">
-        <v>1216.634148838397</v>
+        <v>858.973516659947</v>
       </c>
       <c r="S9">
-        <v>0.149266139574469</v>
+        <v>0.009339983117412182</v>
       </c>
       <c r="T9">
-        <v>0.149266139574469</v>
+        <v>0.00969073340607722</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>10.527220569644</v>
+        <v>0.8133796666666666</v>
       </c>
       <c r="H10">
-        <v>10.527220569644</v>
+        <v>2.440139</v>
       </c>
       <c r="I10">
-        <v>0.6078404097777449</v>
+        <v>0.03886862273814725</v>
       </c>
       <c r="J10">
-        <v>0.6078404097777449</v>
+        <v>0.03918696497382732</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N10">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O10">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P10">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q10">
-        <v>1428.052258823918</v>
+        <v>113.6813196368359</v>
       </c>
       <c r="R10">
-        <v>1428.052258823918</v>
+        <v>1023.131876731523</v>
       </c>
       <c r="S10">
-        <v>0.1752045575810648</v>
+        <v>0.01112494654400589</v>
       </c>
       <c r="T10">
-        <v>0.1752045575810648</v>
+        <v>0.01154272869228608</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,681 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.8133796666666666</v>
+      </c>
+      <c r="H11">
+        <v>2.440139</v>
+      </c>
+      <c r="I11">
+        <v>0.03886862273814725</v>
+      </c>
+      <c r="J11">
+        <v>0.03918696497382732</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>41.458574</v>
+      </c>
+      <c r="N11">
+        <v>82.917148</v>
+      </c>
+      <c r="O11">
+        <v>0.0849018875966847</v>
+      </c>
+      <c r="P11">
+        <v>0.05824976335131885</v>
+      </c>
+      <c r="Q11">
+        <v>33.72156110059533</v>
+      </c>
+      <c r="R11">
+        <v>202.329366603572</v>
+      </c>
+      <c r="S11">
+        <v>0.003300019438752121</v>
+      </c>
+      <c r="T11">
+        <v>0.002282631436181862</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>11.56500533333333</v>
+      </c>
+      <c r="H12">
+        <v>34.695016</v>
+      </c>
+      <c r="I12">
+        <v>0.5526519135991772</v>
+      </c>
+      <c r="J12">
+        <v>0.5571782495826585</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.946674666666667</v>
+      </c>
+      <c r="N12">
+        <v>11.840024</v>
+      </c>
+      <c r="O12">
+        <v>0.008082287850277156</v>
+      </c>
+      <c r="P12">
+        <v>0.008317683527585098</v>
+      </c>
+      <c r="Q12">
+        <v>45.64331356893155</v>
+      </c>
+      <c r="R12">
+        <v>410.789822120384</v>
+      </c>
+      <c r="S12">
+        <v>0.004466691846715051</v>
+      </c>
+      <c r="T12">
+        <v>0.004634432348482377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>11.56500533333333</v>
+      </c>
+      <c r="H13">
+        <v>34.695016</v>
+      </c>
+      <c r="I13">
+        <v>0.5526519135991772</v>
+      </c>
+      <c r="J13">
+        <v>0.5571782495826585</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>185.8027443333333</v>
+      </c>
+      <c r="N13">
+        <v>557.408233</v>
+      </c>
+      <c r="O13">
+        <v>0.3805003933455167</v>
+      </c>
+      <c r="P13">
+        <v>0.3915824222792467</v>
+      </c>
+      <c r="Q13">
+        <v>2148.80972916297</v>
+      </c>
+      <c r="R13">
+        <v>19339.28756246673</v>
+      </c>
+      <c r="S13">
+        <v>0.2102842705076394</v>
+      </c>
+      <c r="T13">
+        <v>0.2181812086128881</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>11.56500533333333</v>
+      </c>
+      <c r="H14">
+        <v>34.695016</v>
+      </c>
+      <c r="I14">
+        <v>0.5526519135991772</v>
+      </c>
+      <c r="J14">
+        <v>0.5571782495826585</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>117.3394243333333</v>
+      </c>
+      <c r="N14">
+        <v>352.018273</v>
+      </c>
+      <c r="O14">
+        <v>0.2402962199184265</v>
+      </c>
+      <c r="P14">
+        <v>0.2472948188906589</v>
+      </c>
+      <c r="Q14">
+        <v>1357.031068225263</v>
+      </c>
+      <c r="R14">
+        <v>12213.27961402737</v>
+      </c>
+      <c r="S14">
+        <v>0.1328001657685671</v>
+      </c>
+      <c r="T14">
+        <v>0.1377872943203579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>11.56500533333333</v>
+      </c>
+      <c r="H15">
+        <v>34.695016</v>
+      </c>
+      <c r="I15">
+        <v>0.5526519135991772</v>
+      </c>
+      <c r="J15">
+        <v>0.5571782495826585</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>139.7641523333333</v>
+      </c>
+      <c r="N15">
+        <v>419.292457</v>
+      </c>
+      <c r="O15">
+        <v>0.2862192112890951</v>
+      </c>
+      <c r="P15">
+        <v>0.2945553119511906</v>
+      </c>
+      <c r="Q15">
+        <v>1616.373167143812</v>
+      </c>
+      <c r="R15">
+        <v>14547.35850429431</v>
+      </c>
+      <c r="S15">
+        <v>0.1581795948277656</v>
+      </c>
+      <c r="T15">
+        <v>0.1641198131182383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>11.56500533333333</v>
+      </c>
+      <c r="H16">
+        <v>34.695016</v>
+      </c>
+      <c r="I16">
+        <v>0.5526519135991772</v>
+      </c>
+      <c r="J16">
+        <v>0.5571782495826585</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>41.458574</v>
+      </c>
+      <c r="N16">
+        <v>82.917148</v>
+      </c>
+      <c r="O16">
+        <v>0.0849018875966847</v>
+      </c>
+      <c r="P16">
+        <v>0.05824976335131885</v>
+      </c>
+      <c r="Q16">
+        <v>479.4686294223947</v>
+      </c>
+      <c r="R16">
+        <v>2876.811776534368</v>
+      </c>
+      <c r="S16">
+        <v>0.04692119064849005</v>
+      </c>
+      <c r="T16">
+        <v>0.03245550118269193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
         <v>26</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>10.527220569644</v>
-      </c>
-      <c r="H11">
-        <v>10.527220569644</v>
-      </c>
-      <c r="I11">
-        <v>0.6078404097777449</v>
-      </c>
-      <c r="J11">
-        <v>0.6078404097777449</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>41.0100219979199</v>
-      </c>
-      <c r="N11">
-        <v>41.0100219979199</v>
-      </c>
-      <c r="O11">
-        <v>0.08713957841951724</v>
-      </c>
-      <c r="P11">
-        <v>0.08713957841951724</v>
-      </c>
-      <c r="Q11">
-        <v>431.7215471380553</v>
-      </c>
-      <c r="R11">
-        <v>431.7215471380553</v>
-      </c>
-      <c r="S11">
-        <v>0.05296695705437929</v>
-      </c>
-      <c r="T11">
-        <v>0.05296695705437929</v>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.5099975</v>
+      </c>
+      <c r="H17">
+        <v>1.019995</v>
+      </c>
+      <c r="I17">
+        <v>0.02437103020553123</v>
+      </c>
+      <c r="J17">
+        <v>0.01638042272939329</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.946674666666667</v>
+      </c>
+      <c r="N17">
+        <v>11.840024</v>
+      </c>
+      <c r="O17">
+        <v>0.008082287850277156</v>
+      </c>
+      <c r="P17">
+        <v>0.008317683527585098</v>
+      </c>
+      <c r="Q17">
+        <v>2.012794213313333</v>
+      </c>
+      <c r="R17">
+        <v>12.07676527988</v>
+      </c>
+      <c r="S17">
+        <v>0.0001969736813289026</v>
+      </c>
+      <c r="T17">
+        <v>0.0001362471723111551</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.5099975</v>
+      </c>
+      <c r="H18">
+        <v>1.019995</v>
+      </c>
+      <c r="I18">
+        <v>0.02437103020553123</v>
+      </c>
+      <c r="J18">
+        <v>0.01638042272939329</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>185.8027443333333</v>
+      </c>
+      <c r="N18">
+        <v>557.408233</v>
+      </c>
+      <c r="O18">
+        <v>0.3805003933455167</v>
+      </c>
+      <c r="P18">
+        <v>0.3915824222792467</v>
+      </c>
+      <c r="Q18">
+        <v>94.75893510313917</v>
+      </c>
+      <c r="R18">
+        <v>568.553610618835</v>
+      </c>
+      <c r="S18">
+        <v>0.009273186579440099</v>
+      </c>
+      <c r="T18">
+        <v>0.006414285610333853</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.5099975</v>
+      </c>
+      <c r="H19">
+        <v>1.019995</v>
+      </c>
+      <c r="I19">
+        <v>0.02437103020553123</v>
+      </c>
+      <c r="J19">
+        <v>0.01638042272939329</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>117.3394243333333</v>
+      </c>
+      <c r="N19">
+        <v>352.018273</v>
+      </c>
+      <c r="O19">
+        <v>0.2402962199184265</v>
+      </c>
+      <c r="P19">
+        <v>0.2472948188906589</v>
+      </c>
+      <c r="Q19">
+        <v>59.84281306143917</v>
+      </c>
+      <c r="R19">
+        <v>359.056878368635</v>
+      </c>
+      <c r="S19">
+        <v>0.005856266433906945</v>
+      </c>
+      <c r="T19">
+        <v>0.004050793672217745</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>0.5099975</v>
+      </c>
+      <c r="H20">
+        <v>1.019995</v>
+      </c>
+      <c r="I20">
+        <v>0.02437103020553123</v>
+      </c>
+      <c r="J20">
+        <v>0.01638042272939329</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>139.7641523333333</v>
+      </c>
+      <c r="N20">
+        <v>419.292457</v>
+      </c>
+      <c r="O20">
+        <v>0.2862192112890951</v>
+      </c>
+      <c r="P20">
+        <v>0.2945553119511906</v>
+      </c>
+      <c r="Q20">
+        <v>71.27936827961916</v>
+      </c>
+      <c r="R20">
+        <v>427.676209677715</v>
+      </c>
+      <c r="S20">
+        <v>0.00697545704372986</v>
+      </c>
+      <c r="T20">
+        <v>0.004824940526948812</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.5099975</v>
+      </c>
+      <c r="H21">
+        <v>1.019995</v>
+      </c>
+      <c r="I21">
+        <v>0.02437103020553123</v>
+      </c>
+      <c r="J21">
+        <v>0.01638042272939329</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>41.458574</v>
+      </c>
+      <c r="N21">
+        <v>82.917148</v>
+      </c>
+      <c r="O21">
+        <v>0.0849018875966847</v>
+      </c>
+      <c r="P21">
+        <v>0.05824976335131885</v>
+      </c>
+      <c r="Q21">
+        <v>21.143769093565</v>
+      </c>
+      <c r="R21">
+        <v>84.57507637425999</v>
+      </c>
+      <c r="S21">
+        <v>0.00206914646712542</v>
+      </c>
+      <c r="T21">
+        <v>0.0009541557475817235</v>
       </c>
     </row>
   </sheetData>
